--- a/RandXY4 (a few shapes).xlsx
+++ b/RandXY4 (a few shapes).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omare\PycharmProjects\Crytal Detector BA Trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A509783F-E06E-4FDA-BBBA-95E434EBA5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95C37C9-C38D-4B85-8F86-CE502ADD89A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{72A45E1A-9903-429A-A719-26FC432BF437}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{72A45E1A-9903-429A-A719-26FC432BF437}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,12 +63,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -109,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -117,13 +123,18 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1548,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C982590-4A3F-4B25-84D2-602B1DA6D40D}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1587,26 +1598,26 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7">
         <v>15</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>28</v>
       </c>
     </row>
@@ -1827,10 +1838,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>9</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="6">
         <v>40</v>
       </c>
     </row>

--- a/RandXY4 (a few shapes).xlsx
+++ b/RandXY4 (a few shapes).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omare\PycharmProjects\Crytal Detector BA Trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95C37C9-C38D-4B85-8F86-CE502ADD89A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE091FEA-E46B-43A0-9CE0-0B6F4802D013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{72A45E1A-9903-429A-A719-26FC432BF437}"/>
   </bookViews>
@@ -115,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -134,6 +134,9 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -335,6 +338,18 @@
                 <c:pt idx="33">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -445,6 +460,18 @@
                 </c:pt>
                 <c:pt idx="33" formatCode="#,##0">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1557,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C982590-4A3F-4B25-84D2-602B1DA6D40D}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1845,6 +1872,38 @@
         <v>40</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>10</v>
+      </c>
+      <c r="B36" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>5</v>
+      </c>
+      <c r="B37" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="B38" s="7">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="B39" s="7">
+        <v>77.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
